--- a/03_design/結合テスト仕様書（盤-マス）.xlsx
+++ b/03_design/結合テスト仕様書（盤-マス）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\ミニプロジェクト\zero1_newProject\03_design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ミニプロgit(マイン\zero1_newProject\03_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A1270B-874A-4828-B41C-448559106E43}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3DE6EC-C186-484B-AC65-D1F38E8174AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="0" windowWidth="19605" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="フォーマット" sheetId="1" r:id="rId1"/>
@@ -177,49 +177,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>①盤クラスのコンストラクタBoard()を引数(9)で実行
-②座標(1.1)に対応するマスインスタンスのhasMineフィールドにtureを設定する
-③盤インスタンスのremoveCoverメソッドに引数(1,1)で実行
-④返り値を判定する</t>
-    <rPh sb="1" eb="2">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ザヒョウ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="112" eb="113">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="114" eb="115">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="116" eb="118">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>①盤クラスのコンストラクタBoard(9)を実行
 ③盤インスタンスのremoveCoverメソッドを引数(1,1)で実行
 ④返り値を判定する</t>
@@ -295,6 +252,49 @@
     </rPh>
     <rPh sb="47" eb="49">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①盤クラスのコンストラクタBoard()を引数(9)で実行
+②座標(1.1)に対応するマスインスタンスのsetMine()を実行する
+③盤インスタンスのremoveCoverメソッドに引数(1,1)で実行
+④返り値を判定する</t>
+    <rPh sb="1" eb="2">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ハンテイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1023,8 +1023,8 @@
   </sheetPr>
   <dimension ref="B1:AS17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9:X9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1300,7 +1300,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
@@ -1354,7 +1354,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -1408,7 +1408,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -1425,7 +1425,7 @@
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
@@ -2817,6 +2817,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2825,7 +2831,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -3009,25 +3015,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC3FF4B1-ACD2-4007-9C2C-3C7AAD5A855E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37A9535A-B843-43F3-9E2E-7B35A70B0C94}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70B257B7-AF3C-4A86-9B47-979C0D6B0679}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -3041,4 +3029,30 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC3FF4B1-ACD2-4007-9C2C-3C7AAD5A855E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37A9535A-B843-43F3-9E2E-7B35A70B0C94}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>